--- a/112/112.xlsx
+++ b/112/112.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">H 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 01</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -70,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -193,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,12 +213,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -238,11 +249,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,7 +341,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,7 +350,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.33"/>
@@ -364,7 +375,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -380,20 +393,23 @@
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="4" t="n">
         <f aca="false">(10+9.5)/2</f>
         <v>9.75</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="C2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <f aca="false">(25/29)*10</f>
+        <v>8.62068965517241</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -407,20 +423,23 @@
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="4" t="n">
         <f aca="false">(9.5+0)/2</f>
         <v>4.75</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="4" t="n">
         <v>10.5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="4" t="n">
+        <f aca="false">(25/29)*10</f>
+        <v>8.62068965517241</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -434,20 +453,23 @@
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="4" t="n">
         <f aca="false">(10+10)/2</f>
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">(29/29)*10</f>
+        <v>10</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -461,20 +483,23 @@
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="4" t="n">
         <f aca="false">(10+9.5)/2</f>
         <v>9.75</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="C5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <f aca="false">(28/29)*10</f>
+        <v>9.6551724137931</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -488,19 +513,21 @@
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -514,20 +541,23 @@
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="4" t="n">
         <f aca="false">(10+10)/2</f>
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="C7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4" t="n">
+        <f aca="false">(28/29)*10</f>
+        <v>9.6551724137931</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -541,19 +571,22 @@
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="B8" s="4" t="n">
+        <f aca="false">(9.5+10)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -567,20 +600,22 @@
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="4" t="n">
         <f aca="false">(10+10)/2</f>
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="n">
+      <c r="C9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -594,20 +629,23 @@
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="4" t="n">
         <f aca="false">(10+10)/2</f>
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="4" t="n">
         <v>11.5</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>10.5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4" t="n">
+        <f aca="false">(29/29)*10</f>
+        <v>10</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -621,20 +659,23 @@
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="4" t="n">
         <f aca="false">(10+10)/2</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="4" t="n">
         <v>11.5</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="E11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">(28/29)*10</f>
+        <v>9.6551724137931</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -645,11 +686,11 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -660,329 +701,333 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="n">
+        <f aca="false">SUM(B2:F2)</f>
+        <v>28.3706896551724</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <f aca="false">(B16*40)/B13</f>
+        <v>22.6965517241379</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <f aca="false">C16+D16+E16</f>
+        <v>22.6965517241379</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <f aca="false">((F16-F26)*50)/(F27-F26)+50</f>
+        <v>77.2795092838196</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <f aca="false">SUM(B3:F3)</f>
+        <v>43.8706896551724</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <f aca="false">(B17*40)/B13</f>
+        <v>35.0965517241379</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <f aca="false">C17+D17+E17</f>
+        <v>35.0965517241379</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <f aca="false">((F17-F26)*50)/(F27-F26)+50</f>
+        <v>92.1833554376658</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="n">
+        <f aca="false">SUM(B4:F4)</f>
+        <v>49</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <f aca="false">(B18*40)/B13</f>
+        <v>39.2</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <f aca="false">C18+D18+E18</f>
+        <v>39.2</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <f aca="false">((F18-F26)*50)/(F27-F26)+50</f>
+        <v>97.1153846153846</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <f aca="false">SUM(B5:F5)</f>
+        <v>49.4051724137931</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <f aca="false">(B19*40)/B13</f>
+        <v>39.5241379310345</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <f aca="false">C19+D19+E19</f>
+        <v>39.5241379310345</v>
+      </c>
+      <c r="G19" s="14" t="n">
+        <f aca="false">((F19-F26)*50)/(F27-F26)+50</f>
+        <v>97.5049734748011</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10" t="n">
-        <f aca="false">SUM(B2:E2)</f>
-        <v>19.75</v>
-      </c>
-      <c r="C16" s="11" t="n">
-        <f aca="false">(B16*40)/B13</f>
-        <v>19.75</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <f aca="false">C16+D16+E16</f>
-        <v>19.75</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <f aca="false">((F16-F26)*50)/(F27-F26)+50</f>
-        <v>73.5119047619048</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="10" t="n">
-        <f aca="false">SUM(B3:E3)</f>
-        <v>35.25</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <f aca="false">(B17*40)/B13</f>
-        <v>35.25</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <f aca="false">C17+D17+E17</f>
-        <v>35.25</v>
-      </c>
-      <c r="G17" s="12" t="n">
-        <f aca="false">((F17-F26)*50)/(F27-F26)+50</f>
-        <v>91.9642857142857</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="10" t="n">
-        <f aca="false">SUM(B4:E4)</f>
-        <v>39</v>
-      </c>
-      <c r="C18" s="11" t="n">
-        <f aca="false">(B18*40)/B13</f>
-        <v>39</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <f aca="false">C18+D18+E18</f>
-        <v>39</v>
-      </c>
-      <c r="G18" s="12" t="n">
-        <f aca="false">((F18-F26)*50)/(F27-F26)+50</f>
-        <v>96.4285714285714</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10" t="n">
-        <f aca="false">SUM(B5:E5)</f>
-        <v>39.75</v>
-      </c>
-      <c r="C19" s="11" t="n">
-        <f aca="false">(B19*40)/B13</f>
-        <v>39.75</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <f aca="false">C19+D19+E19</f>
-        <v>39.75</v>
-      </c>
-      <c r="G19" s="12" t="n">
-        <f aca="false">((F19-F26)*50)/(F27-F26)+50</f>
-        <v>97.3214285714286</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <f aca="false">SUM(B6:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
+      <c r="B20" s="12" t="n">
+        <f aca="false">SUM(B6:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="n">
         <f aca="false">(B20*40)/B13</f>
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="n">
+      <c r="D20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="n">
         <f aca="false">C20+D20+E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="14" t="n">
         <f aca="false">((F20-F26)*50)/(F27-F26)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <f aca="false">SUM(B7:E7)</f>
+      <c r="B21" s="12" t="n">
+        <f aca="false">SUM(B7:F7)</f>
+        <v>50.6551724137931</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <f aca="false">(B21*40)/B13</f>
+        <v>40.5241379310345</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <f aca="false">C21+D21+E21</f>
+        <v>40.5241379310345</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <f aca="false">((F21-F26)*50)/(F27-F26)+50</f>
+        <v>98.7068965517241</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="12" t="n">
+        <f aca="false">SUM(B8:F8)</f>
+        <v>39.75</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <f aca="false">(B22*40)/B13</f>
+        <v>31.8</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <f aca="false">C22+D22+E22</f>
+        <v>31.8</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <f aca="false">((F22-F26)*50)/(F27-F26)+50</f>
+        <v>88.2211538461538</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12" t="n">
+        <f aca="false">SUM(B9:F9)</f>
         <v>41</v>
       </c>
-      <c r="C21" s="11" t="n">
-        <f aca="false">(B21*40)/B13</f>
-        <v>41</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <f aca="false">C21+D21+E21</f>
-        <v>41</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <f aca="false">((F21-F26)*50)/(F27-F26)+50</f>
-        <v>98.8095238095238</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10" t="n">
-        <f aca="false">SUM(B8:E8)</f>
-        <v>20</v>
-      </c>
-      <c r="C22" s="11" t="n">
-        <f aca="false">(B22*40)/B13</f>
-        <v>20</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <f aca="false">C22+D22+E22</f>
-        <v>20</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <f aca="false">((F22-F26)*50)/(F27-F26)+50</f>
-        <v>73.8095238095238</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="10" t="n">
-        <f aca="false">SUM(B9:E9)</f>
-        <v>41</v>
-      </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="12" t="n">
         <f aca="false">(B23*40)/B13</f>
-        <v>41</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="n">
         <f aca="false">C23+D23+E23</f>
-        <v>41</v>
-      </c>
-      <c r="G23" s="12" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="G23" s="14" t="n">
         <f aca="false">((F23-F26)*50)/(F27-F26)+50</f>
-        <v>98.8095238095238</v>
+        <v>89.4230769230769</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B24" s="10" t="n">
-        <f aca="false">SUM(B10:E10)</f>
-        <v>42</v>
-      </c>
-      <c r="C24" s="11" t="n">
+      <c r="B24" s="12" t="n">
+        <f aca="false">SUM(B10:F10)</f>
+        <v>52</v>
+      </c>
+      <c r="C24" s="12" t="n">
         <f aca="false">(B24*40)/B13</f>
-        <v>42</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="n">
         <f aca="false">C24+D24+E24</f>
-        <v>42</v>
-      </c>
-      <c r="G24" s="12" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="G24" s="14" t="n">
         <f aca="false">((F24-F26)*50)/(F27-F26)+50</f>
         <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B25" s="10" t="n">
-        <f aca="false">SUM(B11:E11)</f>
-        <v>40.5</v>
-      </c>
-      <c r="C25" s="11" t="n">
+      <c r="A25" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12" t="n">
+        <f aca="false">SUM(B11:F11)</f>
+        <v>50.1551724137931</v>
+      </c>
+      <c r="C25" s="12" t="n">
         <f aca="false">(B25*40)/B13</f>
-        <v>40.5</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="n">
+        <v>40.1241379310345</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13" t="n">
         <f aca="false">C25+D25+E25</f>
-        <v>40.5</v>
-      </c>
-      <c r="G25" s="12" t="n">
+        <v>40.1241379310345</v>
+      </c>
+      <c r="G25" s="14" t="n">
         <f aca="false">((F25-F26)*50)/(F27-F26)+50</f>
-        <v>98.2142857142857</v>
+        <v>98.2261273209549</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="13" t="n">
+      <c r="E26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15" t="n">
         <f aca="false">MIN(F16:F25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="13" t="n">
+      <c r="E27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="15" t="n">
         <f aca="false">MAX(F16:F25)</f>
-        <v>42</v>
+        <v>41.6</v>
       </c>
     </row>
   </sheetData>

--- a/112/112.xlsx
+++ b/112/112.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Q 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 09</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -341,7 +347,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,8 +384,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -410,8 +420,13 @@
         <f aca="false">(25/29)*10</f>
         <v>8.62068965517241</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">(11/17)*10</f>
+        <v>6.47058823529412</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -440,8 +455,13 @@
         <f aca="false">(25/29)*10</f>
         <v>8.62068965517241</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">(15/17)*10</f>
+        <v>8.82352941176471</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -470,8 +490,13 @@
         <f aca="false">(29/29)*10</f>
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">(12/17)*10</f>
+        <v>7.05882352941177</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -500,8 +525,13 @@
         <f aca="false">(28/29)*10</f>
         <v>9.6551724137931</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">(11/17)*10</f>
+        <v>6.47058823529412</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -528,8 +558,12 @@
       <c r="F6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -558,8 +592,13 @@
         <f aca="false">(28/29)*10</f>
         <v>9.6551724137931</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">(11/17)*10</f>
+        <v>6.47058823529412</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -587,8 +626,13 @@
       <c r="F8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">(9/17)*10</f>
+        <v>5.29411764705882</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -616,8 +660,13 @@
       <c r="F9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">(11/17)*10</f>
+        <v>6.47058823529412</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -646,8 +695,12 @@
         <f aca="false">(29/29)*10</f>
         <v>10</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -676,8 +729,13 @@
         <f aca="false">(28/29)*10</f>
         <v>9.6551724137931</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">(10/17)*10</f>
+        <v>5.88235294117647</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -702,10 +760,10 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -714,7 +772,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -724,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,12 +805,12 @@
         <v>1</v>
       </c>
       <c r="B16" s="12" t="n">
-        <f aca="false">SUM(B2:F2)</f>
-        <v>28.3706896551724</v>
+        <f aca="false">SUM(B2:H2)</f>
+        <v>34.8412778904665</v>
       </c>
       <c r="C16" s="12" t="n">
         <f aca="false">(B16*40)/B13</f>
-        <v>22.6965517241379</v>
+        <v>19.9093016516952</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0</v>
@@ -762,11 +820,11 @@
       </c>
       <c r="F16" s="13" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>22.6965517241379</v>
+        <v>19.9093016516952</v>
       </c>
       <c r="G16" s="14" t="n">
         <f aca="false">((F16-F26)*50)/(F27-F26)+50</f>
-        <v>77.2795092838196</v>
+        <v>74.0284675106666</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,12 +832,12 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="n">
-        <f aca="false">SUM(B3:F3)</f>
-        <v>43.8706896551724</v>
+        <f aca="false">SUM(B3:H3)</f>
+        <v>63.1942190669371</v>
       </c>
       <c r="C17" s="12" t="n">
         <f aca="false">(B17*40)/B13</f>
-        <v>35.0965517241379</v>
+        <v>36.1109823239641</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>0</v>
@@ -789,11 +847,11 @@
       </c>
       <c r="F17" s="13" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>35.0965517241379</v>
+        <v>36.1109823239641</v>
       </c>
       <c r="G17" s="14" t="n">
         <f aca="false">((F17-F26)*50)/(F27-F26)+50</f>
-        <v>92.1833554376658</v>
+        <v>93.5822200461636</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,12 +859,12 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="n">
-        <f aca="false">SUM(B4:F4)</f>
-        <v>49</v>
+        <f aca="false">SUM(B4:H4)</f>
+        <v>66.5588235294118</v>
       </c>
       <c r="C18" s="12" t="n">
         <f aca="false">(B18*40)/B13</f>
-        <v>39.2</v>
+        <v>38.0336134453781</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>0</v>
@@ -816,11 +874,11 @@
       </c>
       <c r="F18" s="13" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>39.2</v>
+        <v>38.0336134453781</v>
       </c>
       <c r="G18" s="14" t="n">
         <f aca="false">((F18-F26)*50)/(F27-F26)+50</f>
-        <v>97.1153846153846</v>
+        <v>95.9026369168357</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,12 +886,12 @@
         <v>4</v>
       </c>
       <c r="B19" s="12" t="n">
-        <f aca="false">SUM(B5:F5)</f>
-        <v>49.4051724137931</v>
+        <f aca="false">SUM(B5:H5)</f>
+        <v>66.3757606490872</v>
       </c>
       <c r="C19" s="12" t="n">
         <f aca="false">(B19*40)/B13</f>
-        <v>39.5241379310345</v>
+        <v>37.9290060851927</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>0</v>
@@ -843,11 +901,11 @@
       </c>
       <c r="F19" s="13" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>39.5241379310345</v>
+        <v>37.9290060851927</v>
       </c>
       <c r="G19" s="14" t="n">
         <f aca="false">((F19-F26)*50)/(F27-F26)+50</f>
-        <v>97.5049734748011</v>
+        <v>95.7763866545429</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="12" t="n">
-        <f aca="false">SUM(B6:F6)</f>
+        <f aca="false">SUM(B6:H6)</f>
         <v>0</v>
       </c>
       <c r="C20" s="12" t="n">
@@ -882,12 +940,12 @@
         <v>6</v>
       </c>
       <c r="B21" s="12" t="n">
-        <f aca="false">SUM(B7:F7)</f>
-        <v>50.6551724137931</v>
+        <f aca="false">SUM(B7:H7)</f>
+        <v>67.1257606490872</v>
       </c>
       <c r="C21" s="12" t="n">
         <f aca="false">(B21*40)/B13</f>
-        <v>40.5241379310345</v>
+        <v>38.3575775137641</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>0</v>
@@ -897,11 +955,11 @@
       </c>
       <c r="F21" s="13" t="n">
         <f aca="false">C21+D21+E21</f>
-        <v>40.5241379310345</v>
+        <v>38.3575775137641</v>
       </c>
       <c r="G21" s="14" t="n">
         <f aca="false">((F21-F26)*50)/(F27-F26)+50</f>
-        <v>98.7068965517241</v>
+        <v>96.2936280338533</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,26 +967,26 @@
         <v>7</v>
       </c>
       <c r="B22" s="12" t="n">
-        <f aca="false">SUM(B8:F8)</f>
-        <v>39.75</v>
+        <f aca="false">SUM(B8:H8)</f>
+        <v>55.0441176470588</v>
       </c>
       <c r="C22" s="12" t="n">
         <f aca="false">(B22*40)/B13</f>
-        <v>31.8</v>
+        <v>31.453781512605</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="13" t="n">
         <f aca="false">C22+D22+E22</f>
-        <v>31.8</v>
+        <v>32.453781512605</v>
       </c>
       <c r="G22" s="14" t="n">
         <f aca="false">((F22-F26)*50)/(F27-F26)+50</f>
-        <v>88.2211538461538</v>
+        <v>89.1683569979716</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,12 +994,12 @@
         <v>8</v>
       </c>
       <c r="B23" s="12" t="n">
-        <f aca="false">SUM(B9:F9)</f>
-        <v>41</v>
+        <f aca="false">SUM(B9:H9)</f>
+        <v>57.4705882352941</v>
       </c>
       <c r="C23" s="12" t="n">
         <f aca="false">(B23*40)/B13</f>
-        <v>32.8</v>
+        <v>32.8403361344538</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>0</v>
@@ -951,11 +1009,11 @@
       </c>
       <c r="F23" s="13" t="n">
         <f aca="false">C23+D23+E23</f>
-        <v>32.8</v>
+        <v>32.8403361344538</v>
       </c>
       <c r="G23" s="14" t="n">
         <f aca="false">((F23-F26)*50)/(F27-F26)+50</f>
-        <v>89.4230769230769</v>
+        <v>89.6348884381339</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,12 +1021,12 @@
         <v>9</v>
       </c>
       <c r="B24" s="12" t="n">
-        <f aca="false">SUM(B10:F10)</f>
-        <v>52</v>
+        <f aca="false">SUM(B10:H10)</f>
+        <v>72.5</v>
       </c>
       <c r="C24" s="12" t="n">
         <f aca="false">(B24*40)/B13</f>
-        <v>41.6</v>
+        <v>41.4285714285714</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>0</v>
@@ -978,7 +1036,7 @@
       </c>
       <c r="F24" s="13" t="n">
         <f aca="false">C24+D24+E24</f>
-        <v>41.6</v>
+        <v>41.4285714285714</v>
       </c>
       <c r="G24" s="14" t="n">
         <f aca="false">((F24-F26)*50)/(F27-F26)+50</f>
@@ -990,12 +1048,12 @@
         <v>10</v>
       </c>
       <c r="B25" s="12" t="n">
-        <f aca="false">SUM(B11:F11)</f>
-        <v>50.1551724137931</v>
+        <f aca="false">SUM(B11:H11)</f>
+        <v>66.0375253549696</v>
       </c>
       <c r="C25" s="12" t="n">
         <f aca="false">(B25*40)/B13</f>
-        <v>40.1241379310345</v>
+        <v>37.7357287742683</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>0</v>
@@ -1005,16 +1063,16 @@
       </c>
       <c r="F25" s="13" t="n">
         <f aca="false">C25+D25+E25</f>
-        <v>40.1241379310345</v>
+        <v>37.7357287742683</v>
       </c>
       <c r="G25" s="14" t="n">
         <f aca="false">((F25-F26)*50)/(F27-F26)+50</f>
-        <v>98.2261273209549</v>
+        <v>95.5431209344618</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F26" s="15" t="n">
         <f aca="false">MIN(F16:F25)</f>
@@ -1023,11 +1081,11 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="15" t="n">
         <f aca="false">MAX(F16:F25)</f>
-        <v>41.6</v>
+        <v>41.4285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/112/112.xlsx
+++ b/112/112.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t xml:space="preserve">H 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H15</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -77,9 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="#\٬##0\٫00"/>
+    <numFmt numFmtId="166" formatCode="0\٫00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -202,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,6 +236,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,30 +248,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,6 +285,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,7 +382,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.55"/>
@@ -390,10 +415,18 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -427,9 +460,18 @@
         <f aca="false">(11/17)*10</f>
         <v>6.47058823529412</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -462,9 +504,18 @@
         <f aca="false">(15/17)*10</f>
         <v>8.82352941176471</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -497,9 +548,18 @@
         <f aca="false">(12/17)*10</f>
         <v>7.05882352941177</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -532,87 +592,116 @@
         <f aca="false">(11/17)*10</f>
         <v>6.47058823529412</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <f aca="false">(10+10)/2</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">(28/29)*10</f>
+        <v>9.6551724137931</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">(11/17)*10</f>
+        <v>6.47058823529412</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <f aca="false">(9.5+10)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">(9/17)*10</f>
+        <v>5.29411764705882</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <f aca="false">(10+10)/2</f>
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false">(28/29)*10</f>
-        <v>9.6551724137931</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">(11/17)*10</f>
-        <v>6.47058823529412</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="n">
-        <f aca="false">(9.5+10)/2</f>
-        <v>9.75</v>
+        <f aca="false">(10+10)/2</f>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>10</v>
@@ -621,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>0</v>
@@ -630,53 +719,71 @@
         <v>10</v>
       </c>
       <c r="H8" s="4" t="n">
-        <f aca="false">(9/17)*10</f>
-        <v>5.29411764705882</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+        <f aca="false">(11/17)*10</f>
+        <v>6.47058823529412</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>9</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">(10+10)/2</f>
         <v>10</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">(29/29)*10</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">(11/17)*10</f>
-        <v>6.47058823529412</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">(10+10)/2</f>
@@ -686,56 +793,46 @@
         <v>11.5</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="n">
-        <f aca="false">(29/29)*10</f>
-        <v>10</v>
+        <f aca="false">(28/29)*10</f>
+        <v>9.6551724137931</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+        <f aca="false">(10/17)*10</f>
+        <v>5.88235294117647</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <f aca="false">(10+10)/2</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">(28/29)*10</f>
-        <v>9.6551724137931</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">(10/17)*10</f>
-        <v>5.88235294117647</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -744,353 +841,313 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>110</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <f aca="false">SUM(B2:L2)</f>
+        <v>44.8412778904665</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <f aca="false">(B15*40)/B12</f>
+        <v>16.3059192328969</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <f aca="false">C15+D15+E15</f>
+        <v>22.3059192328969</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <f aca="false">((F15-F24)*50)/(F25-F24)+50</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="n">
+        <f aca="false">SUM(B3:L3)</f>
+        <v>91.1942190669371</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <f aca="false">(B16*40)/B12</f>
+        <v>33.161534206159</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <f aca="false">C16+D16+E16</f>
+        <v>41.661534206159</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <f aca="false">((F16-F24)*50)/(F25-F24)+50</f>
+        <v>85.8878495086877</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="n">
+        <f aca="false">SUM(B4:L4)</f>
+        <v>106.558823529412</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <f aca="false">(B17*40)/B12</f>
+        <v>38.7486631016043</v>
+      </c>
+      <c r="D17" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="E17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <f aca="false">C17+D17+E17</f>
+        <v>46.7486631016043</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <f aca="false">((F17-F24)*50)/(F25-F24)+50</f>
+        <v>95.3200538836578</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="n">
+        <f aca="false">SUM(B5:L5)</f>
+        <v>104.375760649087</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <f aca="false">(B18*40)/B12</f>
+        <v>37.9548220542135</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <f aca="false">C18+D18+E18</f>
+        <v>45.4548220542135</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <f aca="false">((F18-F24)*50)/(F25-F24)+50</f>
+        <v>92.9211028370977</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="13" t="n">
+        <f aca="false">SUM(B6:L6)</f>
+        <v>99.1257606490872</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <f aca="false">(B19*40)/B12</f>
+        <v>36.0457311451226</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <f aca="false">C19+D19+E19</f>
+        <v>43.0457311451226</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <f aca="false">((F19-F24)*50)/(F25-F24)+50</f>
+        <v>88.4543322324109</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="13" t="n">
+        <f aca="false">SUM(B7:L7)</f>
+        <v>87.0441176470588</v>
+      </c>
+      <c r="C20" s="13" t="n">
+        <f aca="false">(B20*40)/B12</f>
+        <v>31.6524064171123</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <f aca="false">C20+D20+E20</f>
+        <v>40.6524064171123</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <f aca="false">((F20-F24)*50)/(F25-F24)+50</f>
+        <v>84.0167941958821</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <f aca="false">SUM(B2:H2)</f>
-        <v>34.8412778904665</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <f aca="false">(B16*40)/B13</f>
-        <v>19.9093016516952</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="n">
-        <f aca="false">C16+D16+E16</f>
-        <v>19.9093016516952</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <f aca="false">((F16-F26)*50)/(F27-F26)+50</f>
-        <v>74.0284675106666</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="12" t="n">
-        <f aca="false">SUM(B3:H3)</f>
-        <v>63.1942190669371</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <f aca="false">(B17*40)/B13</f>
-        <v>36.1109823239641</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13" t="n">
-        <f aca="false">C17+D17+E17</f>
-        <v>36.1109823239641</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <f aca="false">((F17-F26)*50)/(F27-F26)+50</f>
-        <v>93.5822200461636</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="12" t="n">
-        <f aca="false">SUM(B4:H4)</f>
-        <v>66.5588235294118</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <f aca="false">(B18*40)/B13</f>
-        <v>38.0336134453781</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="n">
-        <f aca="false">C18+D18+E18</f>
-        <v>38.0336134453781</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <f aca="false">((F18-F26)*50)/(F27-F26)+50</f>
-        <v>95.9026369168357</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="12" t="n">
-        <f aca="false">SUM(B5:H5)</f>
-        <v>66.3757606490872</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <f aca="false">(B19*40)/B13</f>
-        <v>37.9290060851927</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13" t="n">
-        <f aca="false">C19+D19+E19</f>
-        <v>37.9290060851927</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <f aca="false">((F19-F26)*50)/(F27-F26)+50</f>
-        <v>95.7763866545429</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="12" t="n">
-        <f aca="false">SUM(B6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="12" t="n">
-        <f aca="false">(B20*40)/B13</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13" t="n">
-        <f aca="false">C20+D20+E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <f aca="false">((F20-F26)*50)/(F27-F26)+50</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="12" t="n">
-        <f aca="false">SUM(B7:H7)</f>
-        <v>67.1257606490872</v>
-      </c>
-      <c r="C21" s="12" t="n">
-        <f aca="false">(B21*40)/B13</f>
-        <v>38.3575775137641</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="n">
+      <c r="B21" s="13" t="n">
+        <f aca="false">SUM(B8:L8)</f>
+        <v>95.4705882352941</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <f aca="false">(B21*40)/B12</f>
+        <v>34.716577540107</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="n">
         <f aca="false">C21+D21+E21</f>
-        <v>38.3575775137641</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <f aca="false">((F21-F26)*50)/(F27-F26)+50</f>
-        <v>96.2936280338533</v>
+        <v>42.216577540107</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <f aca="false">((F21-F24)*50)/(F25-F24)+50</f>
+        <v>86.9169726684035</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="12" t="n">
-        <f aca="false">SUM(B8:H8)</f>
-        <v>55.0441176470588</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <f aca="false">(B22*40)/B13</f>
-        <v>31.453781512605</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13" t="n">
+      <c r="A22" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <f aca="false">SUM(B9:L9)</f>
+        <v>113.5</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <f aca="false">(B22*40)/B12</f>
+        <v>41.2727272727273</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="n">
         <f aca="false">C22+D22+E22</f>
-        <v>32.453781512605</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <f aca="false">((F22-F26)*50)/(F27-F26)+50</f>
-        <v>89.1683569979716</v>
+        <v>49.2727272727273</v>
+      </c>
+      <c r="G22" s="16" t="n">
+        <f aca="false">((F22-F24)*50)/(F25-F24)+50</f>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="12" t="n">
-        <f aca="false">SUM(B9:H9)</f>
-        <v>57.4705882352941</v>
-      </c>
-      <c r="C23" s="12" t="n">
-        <f aca="false">(B23*40)/B13</f>
-        <v>32.8403361344538</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13" t="n">
+      <c r="A23" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13" t="n">
+        <f aca="false">SUM(B10:L10)</f>
+        <v>66.0375253549696</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <f aca="false">(B23*40)/B12</f>
+        <v>24.0136455836253</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="n">
         <f aca="false">C23+D23+E23</f>
-        <v>32.8403361344538</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <f aca="false">((F23-F26)*50)/(F27-F26)+50</f>
-        <v>89.6348884381339</v>
+        <v>31.5136455836253</v>
+      </c>
+      <c r="G23" s="16" t="n">
+        <f aca="false">((F23-F24)*50)/(F25-F24)+50</f>
+        <v>67.0723326563686</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B24" s="12" t="n">
-        <f aca="false">SUM(B10:H10)</f>
-        <v>72.5</v>
-      </c>
-      <c r="C24" s="12" t="n">
-        <f aca="false">(B24*40)/B13</f>
-        <v>41.4285714285714</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13" t="n">
-        <f aca="false">C24+D24+E24</f>
-        <v>41.4285714285714</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <f aca="false">((F24-F26)*50)/(F27-F26)+50</f>
-        <v>100</v>
+      <c r="E24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <f aca="false">MIN(F15:F23)</f>
+        <v>22.3059192328969</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B25" s="12" t="n">
-        <f aca="false">SUM(B11:H11)</f>
-        <v>66.0375253549696</v>
-      </c>
-      <c r="C25" s="12" t="n">
-        <f aca="false">(B25*40)/B13</f>
-        <v>37.7357287742683</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13" t="n">
-        <f aca="false">C25+D25+E25</f>
-        <v>37.7357287742683</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <f aca="false">((F25-F26)*50)/(F27-F26)+50</f>
-        <v>95.5431209344618</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="15" t="n">
-        <f aca="false">MIN(F16:F25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="15" t="n">
-        <f aca="false">MAX(F16:F25)</f>
-        <v>41.4285714285714</v>
-      </c>
-    </row>
+      <c r="E25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <f aca="false">MAX(F15:F23)</f>
+        <v>49.2727272727273</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/112/112.xlsx
+++ b/112/112.xlsx
@@ -91,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#\٬##0\٫00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0\٫00"/>
   </numFmts>
   <fonts count="5">
@@ -372,7 +372,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -810,16 +810,16 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F24)*50)/(F25-F24)+50</f>
-        <v>85.8878495086877</v>
+        <v>85.8878495086878</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,7 +987,7 @@
       </c>
       <c r="G18" s="16" t="n">
         <f aca="false">((F18-F24)*50)/(F25-F24)+50</f>
-        <v>92.9211028370977</v>
+        <v>92.9211028370976</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G19" s="16" t="n">
         <f aca="false">((F19-F24)*50)/(F25-F24)+50</f>
-        <v>88.4543322324109</v>
+        <v>88.4543322324108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G21" s="16" t="n">
         <f aca="false">((F21-F24)*50)/(F25-F24)+50</f>
-        <v>86.9169726684035</v>
+        <v>86.9169726684036</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="B23" s="13" t="n">
         <f aca="false">SUM(B10:L10)</f>
-        <v>66.0375253549696</v>
+        <v>103.53752535497</v>
       </c>
       <c r="C23" s="13" t="n">
         <f aca="false">(B23*40)/B12</f>
-        <v>24.0136455836253</v>
+        <v>37.6500092199889</v>
       </c>
       <c r="D23" s="14" t="n">
         <v>7.5</v>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">C23+D23+E23</f>
-        <v>31.5136455836253</v>
+        <v>45.1500092199889</v>
       </c>
       <c r="G23" s="16" t="n">
         <f aca="false">((F23-F24)*50)/(F25-F24)+50</f>
-        <v>67.0723326563686</v>
+        <v>92.3559398527089</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/112/112.xlsx
+++ b/112/112.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="web 111" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="web 112" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -89,10 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0\٫00"/>
+    <numFmt numFmtId="167" formatCode="#\٬##0\٫00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -244,7 +245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,7 +373,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,15 +926,15 @@
         <v>8.5</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>41.661534206159</v>
+        <v>71.661534206159</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F24)*50)/(F25-F24)+50</f>
-        <v>85.8878495086878</v>
+        <v>81.7627897041547</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,15 +953,15 @@
         <v>8</v>
       </c>
       <c r="E17" s="14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F17" s="15" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>46.7486631016043</v>
+        <v>96.7486631016043</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">((F17-F24)*50)/(F25-F24)+50</f>
-        <v>95.3200538836578</v>
+        <v>97.9076032135949</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,15 +980,15 @@
         <v>7.5</v>
       </c>
       <c r="E18" s="14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="15" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>45.4548220542135</v>
+        <v>95.4548220542135</v>
       </c>
       <c r="G18" s="16" t="n">
         <f aca="false">((F18-F24)*50)/(F25-F24)+50</f>
-        <v>92.9211028370976</v>
+        <v>97.0749522351573</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,15 +1007,15 @@
         <v>7</v>
       </c>
       <c r="E19" s="14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F19" s="15" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>43.0457311451226</v>
+        <v>88.0457311451226</v>
       </c>
       <c r="G19" s="16" t="n">
         <f aca="false">((F19-F24)*50)/(F25-F24)+50</f>
-        <v>88.4543322324108</v>
+        <v>92.306834229295</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,15 +1034,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="14" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F20" s="15" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>40.6524064171123</v>
+        <v>99.6524064171123</v>
       </c>
       <c r="G20" s="16" t="n">
         <f aca="false">((F20-F24)*50)/(F25-F24)+50</f>
-        <v>84.0167941958821</v>
+        <v>99.7763062646113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,15 +1061,15 @@
         <v>7.5</v>
       </c>
       <c r="E21" s="14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F21" s="15" t="n">
         <f aca="false">C21+D21+E21</f>
-        <v>42.216577540107</v>
+        <v>87.216577540107</v>
       </c>
       <c r="G21" s="16" t="n">
         <f aca="false">((F21-F24)*50)/(F25-F24)+50</f>
-        <v>86.9169726684036</v>
+        <v>91.77323270082</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,15 +1088,15 @@
         <v>8</v>
       </c>
       <c r="E22" s="14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">C22+D22+E22</f>
-        <v>49.2727272727273</v>
+        <v>104.272727272727</v>
       </c>
       <c r="G22" s="16" t="n">
         <f aca="false">((F22-F24)*50)/(F25-F24)+50</f>
-        <v>100</v>
+        <v>102.74971222424</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,15 +1115,15 @@
         <v>7.5</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">C23+D23+E23</f>
-        <v>45.1500092199889</v>
+        <v>90.1500092199889</v>
       </c>
       <c r="G23" s="16" t="n">
         <f aca="false">((F23-F24)*50)/(F25-F24)+50</f>
-        <v>92.3559398527089</v>
+        <v>93.6610416889173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,8 +1140,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18" t="n">
-        <f aca="false">MAX(F15:F23)</f>
-        <v>49.2727272727273</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
